--- a/datasets/Monthly Crude Oil Production by State 1981 - Nov 2016.xlsx
+++ b/datasets/Monthly Crude Oil Production by State 1981 - Nov 2016.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6100D7AD-3850-4FFB-87D0-6E8704A9686A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="22" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Workbook Contents</t>
   </si>
@@ -31,9 +32,6 @@
   </si>
   <si>
     <t>Latest Data for</t>
-  </si>
-  <si>
-    <t>Back to Contents</t>
   </si>
   <si>
     <t>Data 1</t>
@@ -97,135 +95,6 @@
   </si>
   <si>
     <t>01/26/2017 7:48:33 AM</t>
-  </si>
-  <si>
-    <t>Data 1: Crude Oil Production</t>
-  </si>
-  <si>
-    <t>Sourcekey</t>
-  </si>
-  <si>
-    <t>MCRFPUS1</t>
-  </si>
-  <si>
-    <t>MCRFPP11</t>
-  </si>
-  <si>
-    <t>MCRFPFL1</t>
-  </si>
-  <si>
-    <t>MCRFPNY1</t>
-  </si>
-  <si>
-    <t>MCRFPPA1</t>
-  </si>
-  <si>
-    <t>MCRFPVA1</t>
-  </si>
-  <si>
-    <t>MCRFPWV1</t>
-  </si>
-  <si>
-    <t>MCRFPP21</t>
-  </si>
-  <si>
-    <t>MCRFPIL1</t>
-  </si>
-  <si>
-    <t>MCRFPIN1</t>
-  </si>
-  <si>
-    <t>MCRFPKS1</t>
-  </si>
-  <si>
-    <t>MCRFPKY1</t>
-  </si>
-  <si>
-    <t>MCRFP_SMI_1</t>
-  </si>
-  <si>
-    <t>MCRFPMO1</t>
-  </si>
-  <si>
-    <t>MCRFPNE1</t>
-  </si>
-  <si>
-    <t>MCRFPND1</t>
-  </si>
-  <si>
-    <t>MCRFPOH1</t>
-  </si>
-  <si>
-    <t>MCRFPOK1</t>
-  </si>
-  <si>
-    <t>MCRFPSD1</t>
-  </si>
-  <si>
-    <t>MCRFPTN1</t>
-  </si>
-  <si>
-    <t>MCRFPP31</t>
-  </si>
-  <si>
-    <t>MCRFPAL1</t>
-  </si>
-  <si>
-    <t>MCRFPAR1</t>
-  </si>
-  <si>
-    <t>MCRFPLA1</t>
-  </si>
-  <si>
-    <t>MCRFPMS1</t>
-  </si>
-  <si>
-    <t>MCRFPNM1</t>
-  </si>
-  <si>
-    <t>MCRFPTX1</t>
-  </si>
-  <si>
-    <t>MCRFP3FM1</t>
-  </si>
-  <si>
-    <t>MCRFPP41</t>
-  </si>
-  <si>
-    <t>MCRFPCO1</t>
-  </si>
-  <si>
-    <t>MCRFPMT1</t>
-  </si>
-  <si>
-    <t>MCRFPUT1</t>
-  </si>
-  <si>
-    <t>MCRFPWY1</t>
-  </si>
-  <si>
-    <t>MCRFPP51</t>
-  </si>
-  <si>
-    <t>MCRFPAK1</t>
-  </si>
-  <si>
-    <t>MCRFPAKS1</t>
-  </si>
-  <si>
-    <t>MANFPAK1</t>
-  </si>
-  <si>
-    <t>MCRFPAZ1</t>
-  </si>
-  <si>
-    <t>MCRFPCA1</t>
-  </si>
-  <si>
-    <t>MCRFPNV1</t>
-  </si>
-  <si>
-    <t>MCRFP5F1</t>
   </si>
   <si>
     <t>Date</t>
@@ -357,9 +226,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -536,7 +405,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -867,152 +736,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
   <dimension ref="A1:AQ435"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:XFD435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="43" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="AH1" s="9" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="AJ1" s="9" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="AK1" s="9" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AL1" s="9" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="AM1" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="AN1" s="9" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="AO1" s="9" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="AP1" s="9" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="AQ1" s="9"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>29601</v>
       </c>
@@ -1140,7 +1009,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>29632</v>
       </c>
@@ -1268,7 +1137,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>29660</v>
       </c>
@@ -1396,7 +1265,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>29691</v>
       </c>
@@ -1524,7 +1393,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>29721</v>
       </c>
@@ -1652,7 +1521,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>29752</v>
       </c>
@@ -1780,7 +1649,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>29782</v>
       </c>
@@ -1908,7 +1777,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>29813</v>
       </c>
@@ -2036,7 +1905,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>29844</v>
       </c>
@@ -2164,7 +2033,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>29874</v>
       </c>
@@ -2292,7 +2161,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>29905</v>
       </c>
@@ -2420,7 +2289,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>29935</v>
       </c>
@@ -2548,7 +2417,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>29966</v>
       </c>
@@ -2676,7 +2545,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>29997</v>
       </c>
@@ -2804,7 +2673,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>30025</v>
       </c>
@@ -2932,7 +2801,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>30056</v>
       </c>
@@ -3060,7 +2929,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>30086</v>
       </c>
@@ -3188,7 +3057,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>30117</v>
       </c>
@@ -3316,7 +3185,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>30147</v>
       </c>
@@ -3444,7 +3313,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>30178</v>
       </c>
@@ -3572,7 +3441,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>30209</v>
       </c>
@@ -3700,7 +3569,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>30239</v>
       </c>
@@ -3828,7 +3697,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>30270</v>
       </c>
@@ -3956,7 +3825,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>30300</v>
       </c>
@@ -4084,7 +3953,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>30331</v>
       </c>
@@ -4212,7 +4081,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>30362</v>
       </c>
@@ -4340,7 +4209,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>30390</v>
       </c>
@@ -4468,7 +4337,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>30421</v>
       </c>
@@ -4596,7 +4465,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>30451</v>
       </c>
@@ -4724,7 +4593,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30482</v>
       </c>
@@ -4852,7 +4721,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>30512</v>
       </c>
@@ -4980,7 +4849,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>30543</v>
       </c>
@@ -5108,7 +4977,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>30574</v>
       </c>
@@ -5236,7 +5105,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>30604</v>
       </c>
@@ -5364,7 +5233,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>30635</v>
       </c>
@@ -5492,7 +5361,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>30665</v>
       </c>
@@ -5620,7 +5489,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>30696</v>
       </c>
@@ -5748,7 +5617,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>30727</v>
       </c>
@@ -5876,7 +5745,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>30756</v>
       </c>
@@ -6004,7 +5873,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>30787</v>
       </c>
@@ -6132,7 +6001,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>30817</v>
       </c>
@@ -6260,7 +6129,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>30848</v>
       </c>
@@ -6388,7 +6257,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>30878</v>
       </c>
@@ -6516,7 +6385,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>30909</v>
       </c>
@@ -6644,7 +6513,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>30940</v>
       </c>
@@ -6772,7 +6641,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>30970</v>
       </c>
@@ -6900,7 +6769,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>31001</v>
       </c>
@@ -7028,7 +6897,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>31031</v>
       </c>
@@ -7156,7 +7025,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>31062</v>
       </c>
@@ -7284,7 +7153,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>31093</v>
       </c>
@@ -7412,7 +7281,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>31121</v>
       </c>
@@ -7540,7 +7409,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>31152</v>
       </c>
@@ -7668,7 +7537,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>31182</v>
       </c>
@@ -7796,7 +7665,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>31213</v>
       </c>
@@ -7924,7 +7793,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>31243</v>
       </c>
@@ -8052,7 +7921,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>31274</v>
       </c>
@@ -8180,7 +8049,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>31305</v>
       </c>
@@ -8308,7 +8177,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>31335</v>
       </c>
@@ -8436,7 +8305,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>31366</v>
       </c>
@@ -8564,7 +8433,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>31396</v>
       </c>
@@ -8692,7 +8561,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>31427</v>
       </c>
@@ -8820,7 +8689,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>31458</v>
       </c>
@@ -8948,7 +8817,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>31486</v>
       </c>
@@ -9076,7 +8945,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>31517</v>
       </c>
@@ -9204,7 +9073,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>31547</v>
       </c>
@@ -9332,7 +9201,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>31578</v>
       </c>
@@ -9460,7 +9329,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>31608</v>
       </c>
@@ -9588,7 +9457,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>31639</v>
       </c>
@@ -9716,7 +9585,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>31670</v>
       </c>
@@ -9844,7 +9713,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>31700</v>
       </c>
@@ -9972,7 +9841,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>31731</v>
       </c>
@@ -10100,7 +9969,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>31761</v>
       </c>
@@ -10228,7 +10097,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>31792</v>
       </c>
@@ -10356,7 +10225,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>31823</v>
       </c>
@@ -10484,7 +10353,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>31851</v>
       </c>
@@ -10612,7 +10481,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>31882</v>
       </c>
@@ -10740,7 +10609,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>31912</v>
       </c>
@@ -10868,7 +10737,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>31943</v>
       </c>
@@ -10996,7 +10865,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>31973</v>
       </c>
@@ -11124,7 +10993,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>32004</v>
       </c>
@@ -11252,7 +11121,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>32035</v>
       </c>
@@ -11380,7 +11249,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>32065</v>
       </c>
@@ -11508,7 +11377,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>32096</v>
       </c>
@@ -11636,7 +11505,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>32126</v>
       </c>
@@ -11764,7 +11633,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>32157</v>
       </c>
@@ -11892,7 +11761,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>32188</v>
       </c>
@@ -12020,7 +11889,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>32217</v>
       </c>
@@ -12148,7 +12017,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>32248</v>
       </c>
@@ -12276,7 +12145,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>32278</v>
       </c>
@@ -12404,7 +12273,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>32309</v>
       </c>
@@ -12532,7 +12401,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>32339</v>
       </c>
@@ -12660,7 +12529,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>32370</v>
       </c>
@@ -12788,7 +12657,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>32401</v>
       </c>
@@ -12916,7 +12785,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>32431</v>
       </c>
@@ -13044,7 +12913,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>32462</v>
       </c>
@@ -13172,7 +13041,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>32492</v>
       </c>
@@ -13300,7 +13169,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>32523</v>
       </c>
@@ -13428,7 +13297,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>32554</v>
       </c>
@@ -13556,7 +13425,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>32582</v>
       </c>
@@ -13684,7 +13553,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>32613</v>
       </c>
@@ -13812,7 +13681,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>32643</v>
       </c>
@@ -13940,7 +13809,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>32674</v>
       </c>
@@ -14068,7 +13937,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
         <v>32704</v>
       </c>
@@ -14196,7 +14065,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>32735</v>
       </c>
@@ -14324,7 +14193,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>32766</v>
       </c>
@@ -14452,7 +14321,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>32796</v>
       </c>
@@ -14580,7 +14449,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>32827</v>
       </c>
@@ -14708,7 +14577,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>32857</v>
       </c>
@@ -14836,7 +14705,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>32888</v>
       </c>
@@ -14964,7 +14833,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>32919</v>
       </c>
@@ -15092,7 +14961,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
         <v>32947</v>
       </c>
@@ -15220,7 +15089,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>32978</v>
       </c>
@@ -15348,7 +15217,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>33008</v>
       </c>
@@ -15476,7 +15345,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>33039</v>
       </c>
@@ -15604,7 +15473,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
         <v>33069</v>
       </c>
@@ -15732,7 +15601,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
         <v>33100</v>
       </c>
@@ -15860,7 +15729,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>33131</v>
       </c>
@@ -15988,7 +15857,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>33161</v>
       </c>
@@ -16116,7 +15985,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
         <v>33192</v>
       </c>
@@ -16244,7 +16113,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>33222</v>
       </c>
@@ -16372,7 +16241,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
         <v>33253</v>
       </c>
@@ -16500,7 +16369,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
         <v>33284</v>
       </c>
@@ -16628,7 +16497,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
         <v>33312</v>
       </c>
@@ -16756,7 +16625,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>33343</v>
       </c>
@@ -16884,7 +16753,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" s="14">
         <v>33373</v>
       </c>
@@ -17012,7 +16881,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
         <v>33404</v>
       </c>
@@ -17140,7 +17009,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
         <v>33434</v>
       </c>
@@ -17268,7 +17137,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
         <v>33465</v>
       </c>
@@ -17396,7 +17265,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
         <v>33496</v>
       </c>
@@ -17524,7 +17393,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
         <v>33526</v>
       </c>
@@ -17652,7 +17521,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
         <v>33557</v>
       </c>
@@ -17780,7 +17649,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
         <v>33587</v>
       </c>
@@ -17908,7 +17777,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
         <v>33618</v>
       </c>
@@ -18036,7 +17905,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
         <v>33649</v>
       </c>
@@ -18164,7 +18033,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>33678</v>
       </c>
@@ -18292,7 +18161,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>33709</v>
       </c>
@@ -18420,7 +18289,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>33739</v>
       </c>
@@ -18548,7 +18417,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
         <v>33770</v>
       </c>
@@ -18676,7 +18545,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140" s="14">
         <v>33800</v>
       </c>
@@ -18804,7 +18673,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
         <v>33831</v>
       </c>
@@ -18932,7 +18801,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
         <v>33862</v>
       </c>
@@ -19060,7 +18929,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>33892</v>
       </c>
@@ -19188,7 +19057,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>33923</v>
       </c>
@@ -19316,7 +19185,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>33953</v>
       </c>
@@ -19444,7 +19313,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
         <v>33984</v>
       </c>
@@ -19572,7 +19441,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
         <v>34015</v>
       </c>
@@ -19700,7 +19569,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148" s="14">
         <v>34043</v>
       </c>
@@ -19828,7 +19697,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>34074</v>
       </c>
@@ -19956,7 +19825,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150" s="14">
         <v>34104</v>
       </c>
@@ -20084,7 +19953,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>34135</v>
       </c>
@@ -20212,7 +20081,7 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152" s="14">
         <v>34165</v>
       </c>
@@ -20340,7 +20209,7 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153" s="14">
         <v>34196</v>
       </c>
@@ -20468,7 +20337,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154" s="14">
         <v>34227</v>
       </c>
@@ -20596,7 +20465,7 @@
         <v>4362</v>
       </c>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155" s="14">
         <v>34257</v>
       </c>
@@ -20724,7 +20593,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156" s="14">
         <v>34288</v>
       </c>
@@ -20852,7 +20721,7 @@
         <v>4443</v>
       </c>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>34318</v>
       </c>
@@ -20980,7 +20849,7 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>34349</v>
       </c>
@@ -21108,7 +20977,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>34380</v>
       </c>
@@ -21236,7 +21105,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>34408</v>
       </c>
@@ -21364,7 +21233,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
         <v>34439</v>
       </c>
@@ -21492,7 +21361,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
         <v>34469</v>
       </c>
@@ -21620,7 +21489,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>34500</v>
       </c>
@@ -21748,7 +21617,7 @@
         <v>4435</v>
       </c>
     </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
         <v>34530</v>
       </c>
@@ -21876,7 +21745,7 @@
         <v>5351</v>
       </c>
     </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
         <v>34561</v>
       </c>
@@ -22004,7 +21873,7 @@
         <v>5215</v>
       </c>
     </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
         <v>34592</v>
       </c>
@@ -22132,7 +22001,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>34622</v>
       </c>
@@ -22260,7 +22129,7 @@
         <v>5540</v>
       </c>
     </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>34653</v>
       </c>
@@ -22388,7 +22257,7 @@
         <v>5441</v>
       </c>
     </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>34683</v>
       </c>
@@ -22516,7 +22385,7 @@
         <v>5695</v>
       </c>
     </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
         <v>34714</v>
       </c>
@@ -22644,7 +22513,7 @@
         <v>5911</v>
       </c>
     </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
         <v>34745</v>
       </c>
@@ -22772,7 +22641,7 @@
         <v>5542</v>
       </c>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>34773</v>
       </c>
@@ -22900,7 +22769,7 @@
         <v>6165</v>
       </c>
     </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>34804</v>
       </c>
@@ -23028,7 +22897,7 @@
         <v>5631</v>
       </c>
     </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
         <v>34834</v>
       </c>
@@ -23156,7 +23025,7 @@
         <v>5835</v>
       </c>
     </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
         <v>34865</v>
       </c>
@@ -23284,7 +23153,7 @@
         <v>6075</v>
       </c>
     </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>34895</v>
       </c>
@@ -23412,7 +23281,7 @@
         <v>6064</v>
       </c>
     </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>34926</v>
       </c>
@@ -23540,7 +23409,7 @@
         <v>6312</v>
       </c>
     </row>
-    <row r="178" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
         <v>34957</v>
       </c>
@@ -23668,7 +23537,7 @@
         <v>5744</v>
       </c>
     </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
         <v>34987</v>
       </c>
@@ -23796,7 +23665,7 @@
         <v>6127</v>
       </c>
     </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>35018</v>
       </c>
@@ -23924,7 +23793,7 @@
         <v>6042</v>
       </c>
     </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
         <v>35048</v>
       </c>
@@ -24052,7 +23921,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
         <v>35079</v>
       </c>
@@ -24180,7 +24049,7 @@
         <v>5761</v>
       </c>
     </row>
-    <row r="183" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
         <v>35110</v>
       </c>
@@ -24308,7 +24177,7 @@
         <v>5654</v>
       </c>
     </row>
-    <row r="184" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
         <v>35139</v>
       </c>
@@ -24436,7 +24305,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="185" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A185" s="14">
         <v>35170</v>
       </c>
@@ -24564,7 +24433,7 @@
         <v>5582</v>
       </c>
     </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A186" s="14">
         <v>35200</v>
       </c>
@@ -24692,7 +24561,7 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
         <v>35231</v>
       </c>
@@ -24820,7 +24689,7 @@
         <v>5479</v>
       </c>
     </row>
-    <row r="188" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
         <v>35261</v>
       </c>
@@ -24948,7 +24817,7 @@
         <v>5388</v>
       </c>
     </row>
-    <row r="189" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A189" s="14">
         <v>35292</v>
       </c>
@@ -25076,7 +24945,7 @@
         <v>5161</v>
       </c>
     </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
         <v>35323</v>
       </c>
@@ -25204,7 +25073,7 @@
         <v>5031</v>
       </c>
     </row>
-    <row r="191" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
         <v>35353</v>
       </c>
@@ -25332,7 +25201,7 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A192" s="14">
         <v>35384</v>
       </c>
@@ -25460,7 +25329,7 @@
         <v>4877</v>
       </c>
     </row>
-    <row r="193" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
         <v>35414</v>
       </c>
@@ -25588,7 +25457,7 @@
         <v>4983</v>
       </c>
     </row>
-    <row r="194" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
         <v>35445</v>
       </c>
@@ -25716,7 +25585,7 @@
         <v>4782</v>
       </c>
     </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
         <v>35476</v>
       </c>
@@ -25844,7 +25713,7 @@
         <v>4272</v>
       </c>
     </row>
-    <row r="196" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>35504</v>
       </c>
@@ -25972,7 +25841,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="197" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>35535</v>
       </c>
@@ -26100,7 +25969,7 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="198" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>35565</v>
       </c>
@@ -26228,7 +26097,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="199" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>35596</v>
       </c>
@@ -26356,7 +26225,7 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="200" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
         <v>35626</v>
       </c>
@@ -26484,7 +26353,7 @@
         <v>4859</v>
       </c>
     </row>
-    <row r="201" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>35657</v>
       </c>
@@ -26612,7 +26481,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="202" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
         <v>35688</v>
       </c>
@@ -26740,7 +26609,7 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="203" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A203" s="14">
         <v>35718</v>
       </c>
@@ -26868,7 +26737,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="204" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
         <v>35749</v>
       </c>
@@ -26996,7 +26865,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="205" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
         <v>35779</v>
       </c>
@@ -27124,7 +26993,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="206" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>35810</v>
       </c>
@@ -27252,7 +27121,7 @@
         <v>4337</v>
       </c>
     </row>
-    <row r="207" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>35841</v>
       </c>
@@ -27380,7 +27249,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="208" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
         <v>35869</v>
       </c>
@@ -27508,7 +27377,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="209" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>35900</v>
       </c>
@@ -27636,7 +27505,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="210" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A210" s="14">
         <v>35930</v>
       </c>
@@ -27764,7 +27633,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="211" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A211" s="14">
         <v>35961</v>
       </c>
@@ -27892,7 +27761,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="212" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A212" s="14">
         <v>35991</v>
       </c>
@@ -28020,7 +27889,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="213" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A213" s="14">
         <v>36022</v>
       </c>
@@ -28148,7 +28017,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="214" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A214" s="14">
         <v>36053</v>
       </c>
@@ -28276,7 +28145,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="215" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>36083</v>
       </c>
@@ -28404,7 +28273,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="216" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A216" s="14">
         <v>36114</v>
       </c>
@@ -28532,7 +28401,7 @@
         <v>3615</v>
       </c>
     </row>
-    <row r="217" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A217" s="14">
         <v>36144</v>
       </c>
@@ -28660,7 +28529,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="218" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
         <v>36175</v>
       </c>
@@ -28788,7 +28657,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="219" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>36206</v>
       </c>
@@ -28916,7 +28785,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="220" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A220" s="14">
         <v>36234</v>
       </c>
@@ -29044,7 +28913,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="221" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A221" s="14">
         <v>36265</v>
       </c>
@@ -29172,7 +29041,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="222" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
         <v>36295</v>
       </c>
@@ -29300,7 +29169,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="223" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
         <v>36326</v>
       </c>
@@ -29428,7 +29297,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="224" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A224" s="14">
         <v>36356</v>
       </c>
@@ -29556,7 +29425,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="225" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A225" s="14">
         <v>36387</v>
       </c>
@@ -29684,7 +29553,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="226" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A226" s="14">
         <v>36418</v>
       </c>
@@ -29812,7 +29681,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="227" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A227" s="14">
         <v>36448</v>
       </c>
@@ -29940,7 +29809,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="228" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A228" s="14">
         <v>36479</v>
       </c>
@@ -30068,7 +29937,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="229" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>36509</v>
       </c>
@@ -30196,7 +30065,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="230" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>36540</v>
       </c>
@@ -30324,7 +30193,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="231" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
         <v>36571</v>
       </c>
@@ -30452,7 +30321,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="232" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
         <v>36600</v>
       </c>
@@ -30580,7 +30449,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="233" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>36631</v>
       </c>
@@ -30708,7 +30577,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="234" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A234" s="14">
         <v>36661</v>
       </c>
@@ -30836,7 +30705,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="235" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>36692</v>
       </c>
@@ -30964,7 +30833,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="236" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
         <v>36722</v>
       </c>
@@ -31092,7 +30961,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="237" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>36753</v>
       </c>
@@ -31220,7 +31089,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="238" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
         <v>36784</v>
       </c>
@@ -31348,7 +31217,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="239" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>36814</v>
       </c>
@@ -31476,7 +31345,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="240" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>36845</v>
       </c>
@@ -31604,7 +31473,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="241" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>36875</v>
       </c>
@@ -31732,7 +31601,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="242" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>36906</v>
       </c>
@@ -31860,7 +31729,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="243" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>36937</v>
       </c>
@@ -31988,7 +31857,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="244" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>36965</v>
       </c>
@@ -32116,7 +31985,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="245" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
         <v>36996</v>
       </c>
@@ -32244,7 +32113,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="246" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A246" s="14">
         <v>37026</v>
       </c>
@@ -32372,7 +32241,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="247" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
         <v>37057</v>
       </c>
@@ -32500,7 +32369,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="248" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
         <v>37087</v>
       </c>
@@ -32628,7 +32497,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="249" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A249" s="14">
         <v>37118</v>
       </c>
@@ -32756,7 +32625,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="250" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
         <v>37149</v>
       </c>
@@ -32884,7 +32753,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="251" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
         <v>37179</v>
       </c>
@@ -33012,7 +32881,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="252" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A252" s="14">
         <v>37210</v>
       </c>
@@ -33140,7 +33009,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="253" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>37240</v>
       </c>
@@ -33268,7 +33137,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="254" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A254" s="14">
         <v>37271</v>
       </c>
@@ -33396,7 +33265,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="255" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A255" s="14">
         <v>37302</v>
       </c>
@@ -33524,7 +33393,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="256" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A256" s="14">
         <v>37330</v>
       </c>
@@ -33652,7 +33521,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="257" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A257" s="14">
         <v>37361</v>
       </c>
@@ -33780,7 +33649,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="258" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A258" s="14">
         <v>37391</v>
       </c>
@@ -33908,7 +33777,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="259" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
         <v>37422</v>
       </c>
@@ -34036,7 +33905,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="260" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A260" s="14">
         <v>37452</v>
       </c>
@@ -34164,7 +34033,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="261" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A261" s="14">
         <v>37483</v>
       </c>
@@ -34292,7 +34161,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="262" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A262" s="14">
         <v>37514</v>
       </c>
@@ -34420,7 +34289,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="263" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A263" s="14">
         <v>37544</v>
       </c>
@@ -34548,7 +34417,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="264" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A264" s="14">
         <v>37575</v>
       </c>
@@ -34676,7 +34545,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="265" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A265" s="14">
         <v>37605</v>
       </c>
@@ -34804,7 +34673,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="266" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A266" s="14">
         <v>37636</v>
       </c>
@@ -34932,7 +34801,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="267" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A267" s="14">
         <v>37667</v>
       </c>
@@ -35060,7 +34929,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="268" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A268" s="14">
         <v>37695</v>
       </c>
@@ -35188,7 +35057,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="269" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A269" s="14">
         <v>37726</v>
       </c>
@@ -35316,7 +35185,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="270" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A270" s="14">
         <v>37756</v>
       </c>
@@ -35444,7 +35313,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="271" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A271" s="14">
         <v>37787</v>
       </c>
@@ -35572,7 +35441,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="272" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A272" s="14">
         <v>37817</v>
       </c>
@@ -35700,7 +35569,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="273" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A273" s="14">
         <v>37848</v>
       </c>
@@ -35828,7 +35697,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="274" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A274" s="14">
         <v>37879</v>
       </c>
@@ -35956,7 +35825,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="275" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A275" s="14">
         <v>37909</v>
       </c>
@@ -36084,7 +35953,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="276" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A276" s="14">
         <v>37940</v>
       </c>
@@ -36212,7 +36081,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="277" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A277" s="14">
         <v>37970</v>
       </c>
@@ -36340,7 +36209,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="278" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A278" s="14">
         <v>38001</v>
       </c>
@@ -36468,7 +36337,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="279" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A279" s="14">
         <v>38032</v>
       </c>
@@ -36596,7 +36465,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="280" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A280" s="14">
         <v>38061</v>
       </c>
@@ -36724,7 +36593,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="281" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A281" s="14">
         <v>38092</v>
       </c>
@@ -36852,7 +36721,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="282" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A282" s="14">
         <v>38122</v>
       </c>
@@ -36980,7 +36849,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="283" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A283" s="14">
         <v>38153</v>
       </c>
@@ -37108,7 +36977,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="284" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A284" s="14">
         <v>38183</v>
       </c>
@@ -37236,7 +37105,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="285" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A285" s="14">
         <v>38214</v>
       </c>
@@ -37364,7 +37233,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="286" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A286" s="14">
         <v>38245</v>
       </c>
@@ -37492,7 +37361,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="287" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A287" s="14">
         <v>38275</v>
       </c>
@@ -37620,7 +37489,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="288" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A288" s="14">
         <v>38306</v>
       </c>
@@ -37748,7 +37617,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="289" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A289" s="14">
         <v>38336</v>
       </c>
@@ -37876,7 +37745,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="290" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A290" s="14">
         <v>38367</v>
       </c>
@@ -38004,7 +37873,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="291" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A291" s="14">
         <v>38398</v>
       </c>
@@ -38132,7 +38001,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="292" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A292" s="14">
         <v>38426</v>
       </c>
@@ -38260,7 +38129,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="293" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A293" s="14">
         <v>38457</v>
       </c>
@@ -38388,7 +38257,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="294" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A294" s="14">
         <v>38487</v>
       </c>
@@ -38516,7 +38385,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="295" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A295" s="14">
         <v>38518</v>
       </c>
@@ -38644,7 +38513,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="296" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A296" s="14">
         <v>38548</v>
       </c>
@@ -38772,7 +38641,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="297" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A297" s="14">
         <v>38579</v>
       </c>
@@ -38900,7 +38769,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="298" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A298" s="14">
         <v>38610</v>
       </c>
@@ -39028,7 +38897,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="299" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A299" s="14">
         <v>38640</v>
       </c>
@@ -39156,7 +39025,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="300" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A300" s="14">
         <v>38671</v>
       </c>
@@ -39284,7 +39153,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="301" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A301" s="14">
         <v>38701</v>
       </c>
@@ -39412,7 +39281,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="302" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A302" s="14">
         <v>38732</v>
       </c>
@@ -39540,7 +39409,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="303" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A303" s="14">
         <v>38763</v>
       </c>
@@ -39668,7 +39537,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="304" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A304" s="14">
         <v>38791</v>
       </c>
@@ -39796,7 +39665,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="305" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A305" s="14">
         <v>38822</v>
       </c>
@@ -39924,7 +39793,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="306" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A306" s="14">
         <v>38852</v>
       </c>
@@ -40052,7 +39921,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="307" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A307" s="14">
         <v>38883</v>
       </c>
@@ -40180,7 +40049,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="308" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A308" s="14">
         <v>38913</v>
       </c>
@@ -40308,7 +40177,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="309" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A309" s="14">
         <v>38944</v>
       </c>
@@ -40436,7 +40305,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="310" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A310" s="14">
         <v>38975</v>
       </c>
@@ -40564,7 +40433,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="311" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A311" s="14">
         <v>39005</v>
       </c>
@@ -40692,7 +40561,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="312" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A312" s="14">
         <v>39036</v>
       </c>
@@ -40820,7 +40689,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="313" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A313" s="14">
         <v>39066</v>
       </c>
@@ -40948,7 +40817,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="314" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A314" s="14">
         <v>39097</v>
       </c>
@@ -41076,7 +40945,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="315" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A315" s="14">
         <v>39128</v>
       </c>
@@ -41204,7 +41073,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="316" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A316" s="14">
         <v>39156</v>
       </c>
@@ -41332,7 +41201,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="317" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A317" s="14">
         <v>39187</v>
       </c>
@@ -41460,7 +41329,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="318" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A318" s="14">
         <v>39217</v>
       </c>
@@ -41588,7 +41457,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="319" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A319" s="14">
         <v>39248</v>
       </c>
@@ -41716,7 +41585,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="320" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A320" s="14">
         <v>39278</v>
       </c>
@@ -41844,7 +41713,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="321" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A321" s="14">
         <v>39309</v>
       </c>
@@ -41972,7 +41841,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="322" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A322" s="14">
         <v>39340</v>
       </c>
@@ -42100,7 +41969,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="323" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A323" s="14">
         <v>39370</v>
       </c>
@@ -42228,7 +42097,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="324" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A324" s="14">
         <v>39401</v>
       </c>
@@ -42356,7 +42225,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="325" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A325" s="14">
         <v>39431</v>
       </c>
@@ -42484,7 +42353,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="326" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A326" s="14">
         <v>39462</v>
       </c>
@@ -42612,7 +42481,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="327" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A327" s="14">
         <v>39493</v>
       </c>
@@ -42740,7 +42609,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="328" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A328" s="14">
         <v>39522</v>
       </c>
@@ -42868,7 +42737,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="329" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A329" s="14">
         <v>39553</v>
       </c>
@@ -42996,7 +42865,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="330" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A330" s="14">
         <v>39583</v>
       </c>
@@ -43124,7 +42993,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="331" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A331" s="14">
         <v>39614</v>
       </c>
@@ -43252,7 +43121,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="332" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A332" s="14">
         <v>39644</v>
       </c>
@@ -43380,7 +43249,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="333" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A333" s="14">
         <v>39675</v>
       </c>
@@ -43508,7 +43377,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="334" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A334" s="14">
         <v>39706</v>
       </c>
@@ -43636,7 +43505,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="335" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A335" s="14">
         <v>39736</v>
       </c>
@@ -43764,7 +43633,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="336" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A336" s="14">
         <v>39767</v>
       </c>
@@ -43892,7 +43761,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="337" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A337" s="14">
         <v>39797</v>
       </c>
@@ -44020,7 +43889,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="338" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A338" s="14">
         <v>39828</v>
       </c>
@@ -44148,7 +44017,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="339" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A339" s="14">
         <v>39859</v>
       </c>
@@ -44276,7 +44145,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="340" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A340" s="14">
         <v>39887</v>
       </c>
@@ -44404,7 +44273,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="341" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A341" s="14">
         <v>39918</v>
       </c>
@@ -44532,7 +44401,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="342" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A342" s="14">
         <v>39948</v>
       </c>
@@ -44660,7 +44529,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="343" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A343" s="14">
         <v>39979</v>
       </c>
@@ -44788,7 +44657,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="344" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A344" s="14">
         <v>40009</v>
       </c>
@@ -44916,7 +44785,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="345" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A345" s="14">
         <v>40040</v>
       </c>
@@ -45044,7 +44913,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="346" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A346" s="14">
         <v>40071</v>
       </c>
@@ -45172,7 +45041,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="347" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A347" s="14">
         <v>40101</v>
       </c>
@@ -45300,7 +45169,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="348" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A348" s="14">
         <v>40132</v>
       </c>
@@ -45428,7 +45297,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="349" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A349" s="14">
         <v>40162</v>
       </c>
@@ -45556,7 +45425,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="350" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A350" s="14">
         <v>40193</v>
       </c>
@@ -45684,7 +45553,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="351" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A351" s="14">
         <v>40224</v>
       </c>
@@ -45812,7 +45681,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="352" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A352" s="14">
         <v>40252</v>
       </c>
@@ -45940,7 +45809,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="353" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A353" s="14">
         <v>40283</v>
       </c>
@@ -46068,7 +45937,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="354" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A354" s="14">
         <v>40313</v>
       </c>
@@ -46196,7 +46065,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="355" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A355" s="14">
         <v>40344</v>
       </c>
@@ -46324,7 +46193,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="356" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A356" s="14">
         <v>40374</v>
       </c>
@@ -46452,7 +46321,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="357" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A357" s="14">
         <v>40405</v>
       </c>
@@ -46580,7 +46449,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="358" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A358" s="14">
         <v>40436</v>
       </c>
@@ -46708,7 +46577,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="359" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A359" s="14">
         <v>40466</v>
       </c>
@@ -46836,7 +46705,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="360" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A360" s="14">
         <v>40497</v>
       </c>
@@ -46964,7 +46833,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="361" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A361" s="14">
         <v>40527</v>
       </c>
@@ -47092,7 +46961,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="362" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A362" s="14">
         <v>40558</v>
       </c>
@@ -47220,7 +47089,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="363" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A363" s="14">
         <v>40589</v>
       </c>
@@ -47348,7 +47217,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="364" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A364" s="14">
         <v>40617</v>
       </c>
@@ -47476,7 +47345,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="365" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A365" s="14">
         <v>40648</v>
       </c>
@@ -47604,7 +47473,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="366" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A366" s="14">
         <v>40678</v>
       </c>
@@ -47732,7 +47601,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="367" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A367" s="14">
         <v>40709</v>
       </c>
@@ -47860,7 +47729,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="368" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A368" s="14">
         <v>40739</v>
       </c>
@@ -47988,7 +47857,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="369" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A369" s="14">
         <v>40770</v>
       </c>
@@ -48116,7 +47985,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="370" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A370" s="14">
         <v>40801</v>
       </c>
@@ -48244,7 +48113,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="371" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A371" s="14">
         <v>40831</v>
       </c>
@@ -48372,7 +48241,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="372" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A372" s="14">
         <v>40862</v>
       </c>
@@ -48500,7 +48369,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="373" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A373" s="14">
         <v>40892</v>
       </c>
@@ -48628,7 +48497,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="374" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A374" s="14">
         <v>40923</v>
       </c>
@@ -48756,7 +48625,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="375" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A375" s="14">
         <v>40954</v>
       </c>
@@ -48884,7 +48753,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="376" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A376" s="14">
         <v>40983</v>
       </c>
@@ -49012,7 +48881,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="377" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A377" s="14">
         <v>41014</v>
       </c>
@@ -49140,7 +49009,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="378" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A378" s="14">
         <v>41044</v>
       </c>
@@ -49268,7 +49137,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="379" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A379" s="14">
         <v>41075</v>
       </c>
@@ -49396,7 +49265,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="380" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A380" s="14">
         <v>41105</v>
       </c>
@@ -49524,7 +49393,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="381" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A381" s="14">
         <v>41136</v>
       </c>
@@ -49652,7 +49521,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="382" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A382" s="14">
         <v>41167</v>
       </c>
@@ -49780,7 +49649,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="383" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A383" s="14">
         <v>41197</v>
       </c>
@@ -49908,7 +49777,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="384" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A384" s="14">
         <v>41228</v>
       </c>
@@ -50036,7 +49905,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="385" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A385" s="14">
         <v>41258</v>
       </c>
@@ -50164,7 +50033,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="386" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A386" s="14">
         <v>41289</v>
       </c>
@@ -50292,7 +50161,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="387" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A387" s="14">
         <v>41320</v>
       </c>
@@ -50420,7 +50289,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="388" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A388" s="14">
         <v>41348</v>
       </c>
@@ -50548,7 +50417,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="389" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A389" s="14">
         <v>41379</v>
       </c>
@@ -50676,7 +50545,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="390" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A390" s="14">
         <v>41409</v>
       </c>
@@ -50804,7 +50673,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="391" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A391" s="14">
         <v>41440</v>
       </c>
@@ -50932,7 +50801,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="392" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A392" s="14">
         <v>41470</v>
       </c>
@@ -51060,7 +50929,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="393" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A393" s="14">
         <v>41501</v>
       </c>
@@ -51188,7 +51057,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="394" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A394" s="14">
         <v>41532</v>
       </c>
@@ -51316,7 +51185,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="395" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A395" s="14">
         <v>41562</v>
       </c>
@@ -51444,7 +51313,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="396" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A396" s="14">
         <v>41593</v>
       </c>
@@ -51572,7 +51441,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="397" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A397" s="14">
         <v>41623</v>
       </c>
@@ -51700,7 +51569,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="398" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A398" s="14">
         <v>41654</v>
       </c>
@@ -51828,7 +51697,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="399" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A399" s="14">
         <v>41685</v>
       </c>
@@ -51956,7 +51825,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="400" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A400" s="14">
         <v>41713</v>
       </c>
@@ -52084,7 +51953,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="401" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A401" s="14">
         <v>41744</v>
       </c>
@@ -52212,7 +52081,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="402" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A402" s="14">
         <v>41774</v>
       </c>
@@ -52340,7 +52209,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="403" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A403" s="14">
         <v>41805</v>
       </c>
@@ -52468,7 +52337,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="404" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A404" s="14">
         <v>41835</v>
       </c>
@@ -52596,7 +52465,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="405" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A405" s="14">
         <v>41866</v>
       </c>
@@ -52724,7 +52593,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="406" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A406" s="14">
         <v>41897</v>
       </c>
@@ -52852,7 +52721,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="407" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A407" s="14">
         <v>41927</v>
       </c>
@@ -52980,7 +52849,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="408" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A408" s="14">
         <v>41958</v>
       </c>
@@ -53108,7 +52977,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="409" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A409" s="14">
         <v>41988</v>
       </c>
@@ -53236,7 +53105,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="410" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A410" s="14">
         <v>42019</v>
       </c>
@@ -53364,7 +53233,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="411" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A411" s="14">
         <v>42050</v>
       </c>
@@ -53492,7 +53361,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="412" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A412" s="14">
         <v>42078</v>
       </c>
@@ -53620,7 +53489,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="413" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A413" s="14">
         <v>42109</v>
       </c>
@@ -53748,7 +53617,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="414" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A414" s="14">
         <v>42139</v>
       </c>
@@ -53876,7 +53745,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="415" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A415" s="14">
         <v>42170</v>
       </c>
@@ -54004,7 +53873,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="416" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A416" s="14">
         <v>42200</v>
       </c>
@@ -54132,7 +54001,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="417" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A417" s="14">
         <v>42231</v>
       </c>
@@ -54260,7 +54129,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="418" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A418" s="14">
         <v>42262</v>
       </c>
@@ -54388,7 +54257,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="419" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A419" s="14">
         <v>42292</v>
       </c>
@@ -54516,7 +54385,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="420" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A420" s="14">
         <v>42323</v>
       </c>
@@ -54644,7 +54513,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="421" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A421" s="14">
         <v>42353</v>
       </c>
@@ -54772,7 +54641,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="422" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A422" s="14">
         <v>42384</v>
       </c>
@@ -54900,7 +54769,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="423" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A423" s="14">
         <v>42415</v>
       </c>
@@ -55028,7 +54897,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="424" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A424" s="14">
         <v>42444</v>
       </c>
@@ -55156,7 +55025,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="425" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A425" s="14">
         <v>42475</v>
       </c>
@@ -55284,7 +55153,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="426" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A426" s="14">
         <v>42505</v>
       </c>
@@ -55412,7 +55281,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="427" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A427" s="14">
         <v>42536</v>
       </c>
@@ -55540,7 +55409,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="428" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A428" s="14">
         <v>42566</v>
       </c>
@@ -55668,7 +55537,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="429" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A429" s="14">
         <v>42597</v>
       </c>
@@ -55796,7 +55665,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="430" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A430" s="14">
         <v>42628</v>
       </c>
@@ -55924,7 +55793,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="431" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A431" s="14">
         <v>42658</v>
       </c>
@@ -56052,7 +55921,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="432" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A432" s="14">
         <v>42689</v>
       </c>
@@ -56180,158 +56049,67 @@
         <v>420</v>
       </c>
     </row>
-    <row r="433" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A433" s="14"/>
     </row>
-    <row r="434" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A434" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B434" s="13" t="s">
-        <v>27</v>
-      </c>
+    <row r="434" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A434" s="4"/>
+      <c r="B434" s="13"/>
     </row>
-    <row r="435" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A435" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B435" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C435" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D435" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E435" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F435" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G435" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H435" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I435" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J435" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K435" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L435" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M435" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N435" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O435" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P435" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q435" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R435" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="S435" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="T435" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="U435" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="V435" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="W435" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="X435" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y435" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z435" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA435" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB435" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC435" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD435" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE435" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF435" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG435" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH435" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI435" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ435" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK435" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL435" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM435" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN435" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO435" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP435" s="10" t="s">
-        <v>69</v>
-      </c>
+    <row r="435" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A435" s="12"/>
+      <c r="B435" s="10"/>
+      <c r="C435" s="10"/>
+      <c r="D435" s="10"/>
+      <c r="E435" s="10"/>
+      <c r="F435" s="10"/>
+      <c r="G435" s="10"/>
+      <c r="H435" s="10"/>
+      <c r="I435" s="10"/>
+      <c r="J435" s="10"/>
+      <c r="K435" s="10"/>
+      <c r="L435" s="10"/>
+      <c r="M435" s="10"/>
+      <c r="N435" s="10"/>
+      <c r="O435" s="10"/>
+      <c r="P435" s="10"/>
+      <c r="Q435" s="10"/>
+      <c r="R435" s="10"/>
+      <c r="S435" s="10"/>
+      <c r="T435" s="10"/>
+      <c r="U435" s="10"/>
+      <c r="V435" s="10"/>
+      <c r="W435" s="10"/>
+      <c r="X435" s="10"/>
+      <c r="Y435" s="10"/>
+      <c r="Z435" s="10"/>
+      <c r="AA435" s="10"/>
+      <c r="AB435" s="10"/>
+      <c r="AC435" s="10"/>
+      <c r="AD435" s="10"/>
+      <c r="AE435" s="10"/>
+      <c r="AF435" s="10"/>
+      <c r="AG435" s="10"/>
+      <c r="AH435" s="10"/>
+      <c r="AI435" s="10"/>
+      <c r="AJ435" s="10"/>
+      <c r="AK435" s="10"/>
+      <c r="AL435" s="10"/>
+      <c r="AM435" s="10"/>
+      <c r="AN435" s="10"/>
+      <c r="AO435" s="10"/>
+      <c r="AP435" s="10"/>
       <c r="AQ435" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A434" location="Contents!A1" display="Back to Contents"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor indexed="17"/>
   </sheetPr>
@@ -56339,50 +56117,50 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="57.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -56397,89 +56175,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="18">
         <v>41</v>
       </c>
       <c r="E7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="19" t="s">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="20" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
+      <c r="C10" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="20" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
+      <c r="C12" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="21" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
+      <c r="C13" s="22" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="22" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
+      <c r="C14" s="22" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="22" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
+      <c r="C15" s="22" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="22" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+      <c r="F16" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" location="'Data 1'!A1" display="Data 1"/>
-    <hyperlink ref="C13" r:id="rId1"/>
-    <hyperlink ref="C14" r:id="rId2" display="http://www.eia.gov/"/>
-    <hyperlink ref="C15" r:id="rId3" display="mailto:infoctr@eia.gov"/>
+    <hyperlink ref="B7" location="'Data 1'!A1" display="Data 1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C14" r:id="rId2" display="http://www.eia.gov/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C15" r:id="rId3" display="mailto:infoctr@eia.gov" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
